--- a/maven_use_base/src/main/resources/retry.xlsx
+++ b/maven_use_base/src/main/resources/retry.xlsx
@@ -1,58 +1,237 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD49D1A6-9BD5-45EE-97A5-EFCD7B7529A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="555" yWindow="1740" windowWidth="16200" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
+    <sheet name="接口测试用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>手机号码</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+  <si>
+    <t>ApiId(接口编号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
+    <t>ApiName(接口名称)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
+    <t>ApiType(接口类型)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期望结果</t>
+    <t>ApiUrl(接口地址)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>caicai</t>
-  </si>
-  <si>
-    <t>手机号码已被注册</t>
-  </si>
-  <si>
-    <t>密码长度必须为6~18</t>
-  </si>
-  <si>
-    <t>手机号码格式不正确</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
+    <t>register</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/list</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>bidLoan</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/audit</t>
+  </si>
+  <si>
+    <t>getLoanList</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/getLoanList</t>
+  </si>
+  <si>
+    <t>generateRepayments</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/generateRepayments</t>
+  </si>
+  <si>
+    <t>getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>getFinanceLogList</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>CaseId(用例编号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsExcute(是否执行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestData(接口请求参数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedResponseData(期望响应结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666666","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666666","pwd":""}</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666665","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666666","pwd":"1234567"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666666","pwd":"123456","regname":"菜菜"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666666","pwd":"","regname":"菜菜"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"","pwd":"","regname":"菜菜"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"135","pwd":"123456","regname":"菜菜"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13666666666","pwd":"123","regname":"菜菜"}</t>
+  </si>
+  <si>
+    <t>ActualResponseData(实际响应结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,9 +279,80 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +366,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -151,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,9 +434,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +486,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,18 +678,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -423,56 +708,185 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>13783948731</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>13783948731</v>
-      </c>
-      <c r="B3">
-        <v>123456</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1378394873</v>
-      </c>
-      <c r="B4">
-        <v>123456</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>13783948731</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -483,27 +897,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>